--- a/DataDictionaryTemplate.xlsx
+++ b/DataDictionaryTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robi\Desktop\CSC350\CSC 350 project file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37E0650-AFE3-42B2-9D48-E701A20911B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19526FE-87C8-44A5-8FC1-D1476F5B7AC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11016" yWindow="1704" windowWidth="12384" windowHeight="8964" xr2:uid="{07EEDACD-45F9-4513-A15E-788DF889D03E}"/>
+    <workbookView xWindow="10656" yWindow="1704" windowWidth="12384" windowHeight="8964" xr2:uid="{07EEDACD-45F9-4513-A15E-788DF889D03E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>Group Letter: I</t>
   </si>
   <si>
-    <t>Group Members:Md Robiul H Chowdhury, Marufa Ahmed</t>
-  </si>
-  <si>
     <t>Semester: Spring 2021</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>day</t>
+  </si>
+  <si>
+    <t>Group Members:Md Robiul H Chowdhury, Marufa Ahmed, Faiq Ahmed</t>
   </si>
 </sst>
 </file>
@@ -744,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3FE5F3-685A-4EA5-8DC6-125F5C5D36A1}">
   <dimension ref="B2:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,7 +786,7 @@
     </row>
     <row r="6" spans="2:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -796,7 +796,7 @@
     </row>
     <row r="7" spans="2:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -850,28 +850,28 @@
     </row>
     <row r="12" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="8"/>
@@ -879,13 +879,13 @@
     <row r="14" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2">
         <v>10</v>
@@ -895,13 +895,13 @@
     <row r="15" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2">
         <v>10</v>
@@ -911,13 +911,13 @@
     <row r="16" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F16" s="2">
         <v>2</v>
@@ -927,13 +927,13 @@
     <row r="17" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="2">
         <v>4</v>
@@ -943,13 +943,13 @@
     <row r="18" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" s="2">
         <v>4</v>
@@ -959,13 +959,13 @@
     <row r="19" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" s="2">
         <v>4</v>
@@ -975,13 +975,13 @@
     <row r="20" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" s="2">
         <v>255</v>
